--- a/outputs-HGR-r202/g__Lacticaseibacillus.xlsx
+++ b/outputs-HGR-r202/g__Lacticaseibacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,126 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36009.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2265569064162377</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.772682064318975</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0007610292647873333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.772682064318975</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Lacticaseibacillus rhamnosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44112.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2738876373803792</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.725375212348209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0007371502714118051</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.725375212348209</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Lacticaseibacillus rhamnosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46265.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2042234661246457</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7950043358110743</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0007721980642799112</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7950043358110743</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Lacticaseibacillus rhamnosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49542.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2759093362737514</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7233545884951802</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0007360752310684578</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7233545884951802</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Lacticaseibacillus rhamnosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68234.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1989485875778969</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8002770116368489</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0007744007852541862</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8002770116368489</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Lacticaseibacillus rhamnosus</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
